--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H2">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I2">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J2">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N2">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O2">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P2">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q2">
-        <v>3.783508011125</v>
+        <v>1.252457115488889</v>
       </c>
       <c r="R2">
-        <v>34.051572100125</v>
+        <v>11.2721140394</v>
       </c>
       <c r="S2">
-        <v>0.007768664740717329</v>
+        <v>0.002758423137200866</v>
       </c>
       <c r="T2">
-        <v>0.00818827090509645</v>
+        <v>0.002804545035307799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H3">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I3">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J3">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N3">
         <v>17.091976</v>
       </c>
       <c r="O3">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P3">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q3">
-        <v>18.76295404255555</v>
+        <v>13.83987623093778</v>
       </c>
       <c r="R3">
-        <v>168.866586383</v>
+        <v>124.55888607844</v>
       </c>
       <c r="S3">
-        <v>0.03852591274380818</v>
+        <v>0.03048107143893165</v>
       </c>
       <c r="T3">
-        <v>0.04060679935884074</v>
+        <v>0.0309907267025266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H4">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I4">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J4">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N4">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O4">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P4">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q4">
-        <v>22.56939214579167</v>
+        <v>13.31243223622722</v>
       </c>
       <c r="R4">
-        <v>203.124529312125</v>
+        <v>119.811890126045</v>
       </c>
       <c r="S4">
-        <v>0.046341659768364</v>
+        <v>0.02931942390577891</v>
       </c>
       <c r="T4">
-        <v>0.04884469558666216</v>
+        <v>0.02980965597485463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H5">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I5">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J5">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N5">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O5">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P5">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q5">
-        <v>4.536137128875001</v>
+        <v>1.629075640635833</v>
       </c>
       <c r="R5">
-        <v>27.21682277325</v>
+        <v>9.774453843814999</v>
       </c>
       <c r="S5">
-        <v>0.009314035669683083</v>
+        <v>0.003587891260952376</v>
       </c>
       <c r="T5">
-        <v>0.006544740941419012</v>
+        <v>0.002431921457208371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H6">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I6">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J6">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N6">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O6">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P6">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q6">
-        <v>29.04348212461111</v>
+        <v>20.008366798185</v>
       </c>
       <c r="R6">
-        <v>261.3913391215</v>
+        <v>180.075301183665</v>
       </c>
       <c r="S6">
-        <v>0.05963488774589143</v>
+        <v>0.04406661212681236</v>
       </c>
       <c r="T6">
-        <v>0.06285592602536318</v>
+        <v>0.04480342286734763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.517274</v>
       </c>
       <c r="I7">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J7">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N7">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O7">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P7">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q7">
-        <v>3.261698595574001</v>
+        <v>1.463797636915556</v>
       </c>
       <c r="R7">
-        <v>29.355287360166</v>
+        <v>13.17417873224</v>
       </c>
       <c r="S7">
-        <v>0.006697235158423407</v>
+        <v>0.003223881456629117</v>
       </c>
       <c r="T7">
-        <v>0.007058970572495549</v>
+        <v>0.003277785997250961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8.517274</v>
       </c>
       <c r="I8">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J8">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N8">
         <v>17.091976</v>
       </c>
       <c r="O8">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P8">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q8">
-        <v>16.17522697704711</v>
+        <v>16.17522697704712</v>
       </c>
       <c r="R8">
         <v>145.577042793424</v>
       </c>
       <c r="S8">
-        <v>0.03321254114440781</v>
+        <v>0.0356244695256859</v>
       </c>
       <c r="T8">
-        <v>0.0350064384824981</v>
+        <v>0.03622012438784911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.517274</v>
       </c>
       <c r="I9">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J9">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N9">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O9">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P9">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q9">
-        <v>19.45669321921133</v>
+        <v>15.55878170038689</v>
       </c>
       <c r="R9">
-        <v>175.110238972902</v>
+        <v>140.029035303482</v>
       </c>
       <c r="S9">
-        <v>0.03995036514752796</v>
+        <v>0.0342668047458471</v>
       </c>
       <c r="T9">
-        <v>0.04210819021072557</v>
+        <v>0.03483975892957031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>8.517274</v>
       </c>
       <c r="I10">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J10">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N10">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O10">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P10">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q10">
-        <v>3.910527494346001</v>
+        <v>1.903967044962334</v>
       </c>
       <c r="R10">
-        <v>23.463164966076</v>
+        <v>11.423802269774</v>
       </c>
       <c r="S10">
-        <v>0.008029473434073238</v>
+        <v>0.004193314632766486</v>
       </c>
       <c r="T10">
-        <v>0.005642111044632009</v>
+        <v>0.002842285646511966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>8.517274</v>
       </c>
       <c r="I11">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J11">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N11">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O11">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P11">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q11">
-        <v>25.03789725775022</v>
+        <v>23.384593113426</v>
       </c>
       <c r="R11">
-        <v>225.341075319752</v>
+        <v>210.461338020834</v>
       </c>
       <c r="S11">
-        <v>0.05141023331681826</v>
+        <v>0.05150244419580254</v>
       </c>
       <c r="T11">
-        <v>0.05418703622077699</v>
+        <v>0.05236358491472329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H12">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I12">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J12">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N12">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O12">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P12">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q12">
-        <v>7.452164421938</v>
+        <v>4.225593815862222</v>
       </c>
       <c r="R12">
-        <v>67.069479797442</v>
+        <v>38.03034434276</v>
       </c>
       <c r="S12">
-        <v>0.01530150506263199</v>
+        <v>0.009306486909563693</v>
       </c>
       <c r="T12">
-        <v>0.0161279798897547</v>
+        <v>0.009462094957940191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H13">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I13">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J13">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N13">
         <v>17.091976</v>
       </c>
       <c r="O13">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P13">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q13">
-        <v>36.95634267332088</v>
+        <v>46.69357113350845</v>
       </c>
       <c r="R13">
-        <v>332.6070840598879</v>
+        <v>420.2421402015761</v>
       </c>
       <c r="S13">
-        <v>0.07588233867297335</v>
+        <v>0.1028383530105361</v>
       </c>
       <c r="T13">
-        <v>0.07998094482182663</v>
+        <v>0.104557849912614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H14">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I14">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J14">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N14">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O14">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P14">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q14">
-        <v>44.45367121705266</v>
+        <v>44.91405784343255</v>
       </c>
       <c r="R14">
-        <v>400.0830409534739</v>
+        <v>404.226520590893</v>
       </c>
       <c r="S14">
-        <v>0.09127657908055324</v>
+        <v>0.0989191364788102</v>
       </c>
       <c r="T14">
-        <v>0.09620666893819611</v>
+        <v>0.100573102569789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H15">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I15">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J15">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N15">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O15">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P15">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q15">
-        <v>8.934575961102</v>
+        <v>5.496245633891833</v>
       </c>
       <c r="R15">
-        <v>53.607455766612</v>
+        <v>32.977473803351</v>
       </c>
       <c r="S15">
-        <v>0.01834533587299984</v>
+        <v>0.01210498222795315</v>
       </c>
       <c r="T15">
-        <v>0.01289081071086238</v>
+        <v>0.008204921464501434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H16">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I16">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J16">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N16">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O16">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P16">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q16">
-        <v>57.20532467271377</v>
+        <v>67.50509056344899</v>
       </c>
       <c r="R16">
-        <v>514.847922054424</v>
+        <v>607.545815071041</v>
       </c>
       <c r="S16">
-        <v>0.1174595078058409</v>
+        <v>0.1486738359232145</v>
       </c>
       <c r="T16">
-        <v>0.1238038070110756</v>
+        <v>0.1511597197671905</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H17">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I17">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J17">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N17">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O17">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P17">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q17">
-        <v>2.294083666491</v>
+        <v>0.1928038917933333</v>
       </c>
       <c r="R17">
-        <v>13.764501998946</v>
+        <v>1.15682335076</v>
       </c>
       <c r="S17">
-        <v>0.00471043455959934</v>
+        <v>0.0004246330748478397</v>
       </c>
       <c r="T17">
-        <v>0.003309905073096396</v>
+        <v>0.0002878220690246657</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H18">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I18">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J18">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N18">
         <v>17.091976</v>
       </c>
       <c r="O18">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P18">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q18">
-        <v>11.37668699989067</v>
+        <v>2.130517657062667</v>
       </c>
       <c r="R18">
-        <v>68.26012199934399</v>
+        <v>12.783105942376</v>
       </c>
       <c r="S18">
-        <v>0.02335971455653087</v>
+        <v>0.004692271796597715</v>
       </c>
       <c r="T18">
-        <v>0.01641428975150051</v>
+        <v>0.003180485593136576</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H19">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I19">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J19">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N19">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O19">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P19">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q19">
-        <v>13.684674046427</v>
+        <v>2.049322657548833</v>
       </c>
       <c r="R19">
-        <v>82.10804427856199</v>
+        <v>12.295935945293</v>
       </c>
       <c r="S19">
-        <v>0.02809869688133049</v>
+        <v>0.004513447178561555</v>
       </c>
       <c r="T19">
-        <v>0.01974425462835098</v>
+        <v>0.003059275836750651</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H20">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I20">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J20">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N20">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O20">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P20">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q20">
-        <v>2.750431098789</v>
+        <v>0.25078074103775</v>
       </c>
       <c r="R20">
-        <v>11.001724395156</v>
+        <v>1.003122964151</v>
       </c>
       <c r="S20">
-        <v>0.005647451263776007</v>
+        <v>0.0005523218239475484</v>
       </c>
       <c r="T20">
-        <v>0.002645548919323317</v>
+        <v>0.0002495808256622889</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H21">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I21">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J21">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N21">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O21">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P21">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q21">
-        <v>17.61015908098533</v>
+        <v>3.0800982639735</v>
       </c>
       <c r="R21">
-        <v>105.660954485912</v>
+        <v>18.480589583841</v>
       </c>
       <c r="S21">
-        <v>0.03615888258425944</v>
+        <v>0.006783636909500313</v>
       </c>
       <c r="T21">
-        <v>0.02540794641955862</v>
+        <v>0.004598041288950722</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H22">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I22">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J22">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N22">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O22">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P22">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q22">
-        <v>6.623492540577</v>
+        <v>4.229273042315556</v>
       </c>
       <c r="R22">
-        <v>59.611432865193</v>
+        <v>38.06345738084</v>
       </c>
       <c r="S22">
-        <v>0.01359999577352151</v>
+        <v>0.009314590071939768</v>
       </c>
       <c r="T22">
-        <v>0.01433456757608493</v>
+        <v>0.009470333608314613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H23">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I23">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J23">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N23">
         <v>17.091976</v>
       </c>
       <c r="O23">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P23">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q23">
-        <v>32.84684102019466</v>
+        <v>46.73422724708713</v>
       </c>
       <c r="R23">
-        <v>295.621569181752</v>
+        <v>420.6080452237841</v>
       </c>
       <c r="S23">
-        <v>0.06744431224335085</v>
+        <v>0.1029278944111775</v>
       </c>
       <c r="T23">
-        <v>0.07108715822964928</v>
+        <v>0.1046488884799884</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H24">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I24">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J24">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N24">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O24">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P24">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q24">
-        <v>39.510475485569</v>
+        <v>44.95316453398189</v>
       </c>
       <c r="R24">
-        <v>355.5942793701209</v>
+        <v>404.578480805837</v>
       </c>
       <c r="S24">
-        <v>0.08112673130099932</v>
+        <v>0.09900526541583857</v>
       </c>
       <c r="T24">
-        <v>0.08550860098980309</v>
+        <v>0.1006606716158434</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H25">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I25">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J25">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N25">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O25">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P25">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q25">
-        <v>7.941061667583</v>
+        <v>5.501031217459833</v>
       </c>
       <c r="R25">
-        <v>47.646370005498</v>
+        <v>33.006187304759</v>
       </c>
       <c r="S25">
-        <v>0.016305356193093</v>
+        <v>0.0121155220414731</v>
       </c>
       <c r="T25">
-        <v>0.01145736778620119</v>
+        <v>0.008212065493344529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H26">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I26">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J26">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N26">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O26">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P26">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q26">
-        <v>50.84416013897733</v>
+        <v>67.563867276441</v>
       </c>
       <c r="R26">
-        <v>457.597441250796</v>
+        <v>608.074805487969</v>
       </c>
       <c r="S26">
-        <v>0.1043981492788252</v>
+        <v>0.1488032862996311</v>
       </c>
       <c r="T26">
-        <v>0.1100369699062065</v>
+        <v>0.1512913346037984</v>
       </c>
     </row>
   </sheetData>
